--- a/data/trans_orig/P20B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6414</v>
+        <v>6288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2713589189309857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0833101925747054</v>
+        <v>0.08304138084003462</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6364457560449971</v>
+        <v>0.6239591694496083</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>2735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7276</v>
+        <v>6714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.120671213988244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03606955155033623</v>
+        <v>0.03564987325195841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.321047789113693</v>
+        <v>0.2962678385669296</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>7343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3664</v>
+        <v>3790</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9238</v>
+        <v>9241</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7286410810690144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.363554243955003</v>
+        <v>0.3760408305503914</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9166898074252946</v>
+        <v>0.9169586191599655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -841,19 +841,19 @@
         <v>19928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15387</v>
+        <v>15949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21846</v>
+        <v>21855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.879328786011756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.678952210886307</v>
+        <v>0.7037321614330707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9639304484496638</v>
+        <v>0.9643501267480415</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>5094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1934</v>
+        <v>1961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10491</v>
+        <v>10403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1973328092999341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07492603213498278</v>
+        <v>0.075972128539339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.406391609605375</v>
+        <v>0.4029782530960207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -966,19 +966,19 @@
         <v>9004</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4764</v>
+        <v>4136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15179</v>
+        <v>15727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1904690721260233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1007615414025166</v>
+        <v>0.08748086870265569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3210776372843099</v>
+        <v>0.3326808562679632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -987,19 +987,19 @@
         <v>14099</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7983</v>
+        <v>8326</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21902</v>
+        <v>22152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1928933594740846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1092174379568513</v>
+        <v>0.1139149248447249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2996510734178175</v>
+        <v>0.3030737345298167</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>20722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15325</v>
+        <v>15413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23882</v>
+        <v>23855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.802667190700066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5936083903946247</v>
+        <v>0.5970217469039798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9250739678650172</v>
+        <v>0.924027871460661</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1037,19 +1037,19 @@
         <v>38271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32096</v>
+        <v>31548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42511</v>
+        <v>43139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8095309278739766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6789223627156902</v>
+        <v>0.6673191437320368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8992384585974834</v>
+        <v>0.9125191312973443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1058,19 +1058,19 @@
         <v>58992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51189</v>
+        <v>50939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65108</v>
+        <v>64765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8071066405259154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7003489265821824</v>
+        <v>0.6969262654701832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8907825620431487</v>
+        <v>0.8860850751552751</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4878</v>
+        <v>4799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1287254650247915</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6614359567793916</v>
+        <v>0.6507116477897973</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6257</v>
+        <v>6541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1209194132991887</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3833063336184193</v>
+        <v>0.4007034206614237</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>2923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7737</v>
+        <v>7981</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.12334868269933</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03694593897269777</v>
+        <v>0.03765478908289097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3264674637168852</v>
+        <v>0.3367515959390917</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>6426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2497</v>
+        <v>2576</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>7375</v>
@@ -1242,7 +1242,7 @@
         <v>0.8712745349752085</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3385640432206085</v>
+        <v>0.3492883522102033</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>14350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10067</v>
+        <v>9783</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>16324</v>
@@ -1263,7 +1263,7 @@
         <v>0.8790805867008114</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.616693666381581</v>
+        <v>0.5992965793385763</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>20776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15962</v>
+        <v>15718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22823</v>
+        <v>22807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.87665131730067</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.673532536283115</v>
+        <v>0.6632484040609085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9630540610273022</v>
+        <v>0.962345210917109</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4714</v>
+        <v>3866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1311054731468068</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.637463353021506</v>
+        <v>0.5227573100298678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1400,19 +1400,19 @@
         <v>6494</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2779</v>
+        <v>3364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10685</v>
+        <v>10518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3490053032235553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1493288984021901</v>
+        <v>0.1807757107544189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5741908437062413</v>
+        <v>0.5652182023830548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1421,19 +1421,19 @@
         <v>7464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3473</v>
+        <v>3704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12510</v>
+        <v>13023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2870384533678937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.133568644443821</v>
+        <v>0.1424529446616613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4811032769908312</v>
+        <v>0.5008416794311868</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>6425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2681</v>
+        <v>3529</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>7395</v>
@@ -1459,7 +1459,7 @@
         <v>0.8688945268531931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3625366469784941</v>
+        <v>0.4772426899701321</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         <v>12114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7923</v>
+        <v>8090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15829</v>
+        <v>15244</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6509946967764447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4258091562937587</v>
+        <v>0.4347817976169451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8506711015978099</v>
+        <v>0.81922428924558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1492,19 +1492,19 @@
         <v>18538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13492</v>
+        <v>12979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22529</v>
+        <v>22298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7129615466321062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5188967230091688</v>
+        <v>0.4991583205688122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8664313555561794</v>
+        <v>0.8575470553383386</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>2698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6550</v>
+        <v>6032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2067322923052196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06438343364768974</v>
+        <v>0.0615611762348605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5017726671240028</v>
+        <v>0.4621084118385235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4174</v>
+        <v>4417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05301747989270442</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2215513318072225</v>
+        <v>0.2344437111313108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1638,7 +1638,7 @@
         <v>3697</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>8524</v>
@@ -1647,10 +1647,10 @@
         <v>0.1159257616078028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02871851956272066</v>
+        <v>0.02946215015405342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2672422913728826</v>
+        <v>0.2672553250340592</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>10355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6503</v>
+        <v>7021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12213</v>
+        <v>12249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7932677076947804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4982273328759972</v>
+        <v>0.5378915881614768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9356165663523103</v>
+        <v>0.9384388237651395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1688,7 +1688,7 @@
         <v>17843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14668</v>
+        <v>14425</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>18842</v>
@@ -1697,7 +1697,7 @@
         <v>0.9469825201072956</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7784486681927768</v>
+        <v>0.765556288868691</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1712,16 +1712,16 @@
         <v>23371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30979</v>
+        <v>30955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8840742383921971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7327577086271175</v>
+        <v>0.7327446749659404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9712814804372794</v>
+        <v>0.9705378498459466</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>3615</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>902</v>
+        <v>1661</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6586</v>
+        <v>6567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.345425931445687</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08619806668503474</v>
+        <v>0.1587372474477056</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6292974284168933</v>
+        <v>0.6275075047806855</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1834,19 +1834,19 @@
         <v>5956</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2083</v>
+        <v>2773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11413</v>
+        <v>11338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1948131855605728</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06812067041534539</v>
+        <v>0.09070446608797174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3733167329227722</v>
+        <v>0.3708560970522115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1855,19 +1855,19 @@
         <v>9571</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4848</v>
+        <v>4706</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15509</v>
+        <v>15236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2332240083901994</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1181325829971645</v>
+        <v>0.1146846957396942</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.377907479077734</v>
+        <v>0.3712735399942982</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>6851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3880</v>
+        <v>3899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9564</v>
+        <v>8805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.654574068554313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3707025715831067</v>
+        <v>0.3724924952193144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9138019333149653</v>
+        <v>0.8412627525522942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -1905,19 +1905,19 @@
         <v>24616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19159</v>
+        <v>19234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28489</v>
+        <v>27799</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8051868144394272</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6266832670772281</v>
+        <v>0.6291439029477887</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9318793295846547</v>
+        <v>0.9092955339120282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1926,19 +1926,19 @@
         <v>31467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25529</v>
+        <v>25802</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36190</v>
+        <v>36332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7667759916098006</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.622092520922266</v>
+        <v>0.6287264600057019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8818674170028356</v>
+        <v>0.8853153042603059</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>12570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7490</v>
+        <v>7307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18552</v>
+        <v>18636</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3687386125059803</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2197272612594069</v>
+        <v>0.2143550611170456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5442468805617994</v>
+        <v>0.5467005885750571</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2051,19 +2051,19 @@
         <v>16233</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10446</v>
+        <v>10355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22959</v>
+        <v>24011</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3024648937731955</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946381316954117</v>
+        <v>0.1929395777453664</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4278029092927914</v>
+        <v>0.4473911642353449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2072,19 +2072,19 @@
         <v>28802</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21030</v>
+        <v>20772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37260</v>
+        <v>38351</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3282084098768234</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2396464233158679</v>
+        <v>0.2367060299974273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4245829928651804</v>
+        <v>0.4370206131603344</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>21518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15536</v>
+        <v>15452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26598</v>
+        <v>26781</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6312613874940197</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4557531194382006</v>
+        <v>0.453299411424943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7802727387405931</v>
+        <v>0.7856449388829545</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2122,19 +2122,19 @@
         <v>37435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30709</v>
+        <v>29657</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43222</v>
+        <v>43313</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6975351062268045</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5721970907072087</v>
+        <v>0.5526088357646551</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8053618683045887</v>
+        <v>0.8070604222546336</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -2143,19 +2143,19 @@
         <v>58954</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>50496</v>
+        <v>49405</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>66726</v>
+        <v>66984</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6717915901231766</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5754170071348196</v>
+        <v>0.5629793868396656</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7603535766841322</v>
+        <v>0.7632939700025726</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>6532</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3169</v>
+        <v>3070</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11599</v>
+        <v>11418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2540498078498777</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1232706881360133</v>
+        <v>0.1194228750821181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4511245477048687</v>
+        <v>0.4440964293805971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2268,19 +2268,19 @@
         <v>9498</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4857</v>
+        <v>4351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16296</v>
+        <v>15621</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.188106987354947</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09618769051522653</v>
+        <v>0.08617074041141932</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3227392609897775</v>
+        <v>0.3093540469711382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2289,19 +2289,19 @@
         <v>16030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9808</v>
+        <v>9655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23080</v>
+        <v>24246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2103554742018975</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1287060306179778</v>
+        <v>0.1266915526004841</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3028677040777558</v>
+        <v>0.3181686738503881</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>19179</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14112</v>
+        <v>14293</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22542</v>
+        <v>22641</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7459501921501223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5488754522951313</v>
+        <v>0.5559035706194029</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8767293118639863</v>
+        <v>0.8805771249178819</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -2339,19 +2339,19 @@
         <v>40996</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34198</v>
+        <v>34873</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45637</v>
+        <v>46143</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.811893012645053</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6772607390102213</v>
+        <v>0.6906459530288608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9038123094847734</v>
+        <v>0.9138292595885804</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -2360,19 +2360,19 @@
         <v>60175</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53125</v>
+        <v>51959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66397</v>
+        <v>66550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7896445257981025</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.697132295922244</v>
+        <v>0.6818313261496115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8712939693820222</v>
+        <v>0.8733084473995159</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>35163</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.262447049217092</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -2485,19 +2485,19 @@
         <v>50158</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2019519654144937</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2506,19 +2506,19 @@
         <v>85321</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2231504842371767</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>98819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>88572</v>
+        <v>88529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109456</v>
+        <v>108555</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7375529507829081</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6610762406264841</v>
+        <v>0.6607542415718272</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8169475302441982</v>
+        <v>0.8102211531013199</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>189</v>
@@ -2556,19 +2556,19 @@
         <v>198209</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>185267</v>
+        <v>184370</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>209307</v>
+        <v>209720</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7980480345855063</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7459388053780496</v>
+        <v>0.742329909501264</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8427338698235841</v>
+        <v>0.844394393109308</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>287</v>
@@ -2577,19 +2577,19 @@
         <v>297028</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>281876</v>
+        <v>281022</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>312950</v>
+        <v>313327</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7768495157628234</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7372225077604736</v>
+        <v>0.734989292263414</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.818492268854669</v>
+        <v>0.8194796637572503</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>12477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7540</v>
+        <v>7424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17365</v>
+        <v>17730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5091809231415582</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3077111090051628</v>
+        <v>0.3029896499989418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7086595539279055</v>
+        <v>0.7235557274970114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2946,19 +2946,19 @@
         <v>10565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5365</v>
+        <v>5474</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17077</v>
+        <v>16580</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2860673874103853</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1452688685229291</v>
+        <v>0.1482275500432996</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.462391752421924</v>
+        <v>0.4489238013758156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2967,19 +2967,19 @@
         <v>23042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15960</v>
+        <v>16191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31014</v>
+        <v>30840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3750571737865752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2597798700759298</v>
+        <v>0.2635407888463471</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5048046474959118</v>
+        <v>0.5019718682804866</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>12027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7139</v>
+        <v>6774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16964</v>
+        <v>17080</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4908190768584419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2913404460720946</v>
+        <v>0.2764442725029886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6922888909948377</v>
+        <v>0.6970103500010583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3017,19 +3017,19 @@
         <v>26367</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19855</v>
+        <v>20352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31567</v>
+        <v>31458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7139326125896147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5376082475780761</v>
+        <v>0.5510761986241846</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8547311314770715</v>
+        <v>0.8517724499567005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -3038,19 +3038,19 @@
         <v>38395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30423</v>
+        <v>30597</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45477</v>
+        <v>45246</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6249428262134248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4951953525040881</v>
+        <v>0.4980281317195132</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7402201299240699</v>
+        <v>0.7364592111536526</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>11253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6178</v>
+        <v>6007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18083</v>
+        <v>19235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2665541453337156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1463335909219215</v>
+        <v>0.1422958300275773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4283456425585081</v>
+        <v>0.4556412118410838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3163,19 +3163,19 @@
         <v>14700</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8456</v>
+        <v>8728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22656</v>
+        <v>23405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2468212559869826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1419801005224132</v>
+        <v>0.1465490028868239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.380398717232242</v>
+        <v>0.3929763992827671</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3184,19 +3184,19 @@
         <v>25953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17953</v>
+        <v>17261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36662</v>
+        <v>35976</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2550063344409579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1764010515573698</v>
+        <v>0.1696038077754992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3602250494955223</v>
+        <v>0.3534859713411617</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>30963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24133</v>
+        <v>22981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36038</v>
+        <v>36209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7334458546662844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5716543574414918</v>
+        <v>0.544358788158916</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8536664090780784</v>
+        <v>0.8577041699724227</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -3234,19 +3234,19 @@
         <v>44859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36903</v>
+        <v>36154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51103</v>
+        <v>50831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7531787440130174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6196012827677596</v>
+        <v>0.6070236007172328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8580198994775868</v>
+        <v>0.8534509971131762</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -3255,19 +3255,19 @@
         <v>75822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65113</v>
+        <v>65799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83822</v>
+        <v>84514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7449936655590421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6397749505044776</v>
+        <v>0.6465140286588378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8235989484426302</v>
+        <v>0.8303961922245005</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>5131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1946</v>
+        <v>2013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9914</v>
+        <v>10469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.209905385740968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07960859793393399</v>
+        <v>0.08236788455607677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4055827523029961</v>
+        <v>0.4282939604917818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3380,19 +3380,19 @@
         <v>9129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4147</v>
+        <v>4877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14742</v>
+        <v>15491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2687657601813615</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1220848592078242</v>
+        <v>0.1435731861744812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4339859167144896</v>
+        <v>0.4560434251589291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3401,19 +3401,19 @@
         <v>14261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9014</v>
+        <v>8706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22041</v>
+        <v>21560</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2441340945091784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1543084069448883</v>
+        <v>0.1490375754940002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3773233225002662</v>
+        <v>0.3690894528333825</v>
       </c>
     </row>
     <row r="11">
@@ -3430,19 +3430,19 @@
         <v>19313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14530</v>
+        <v>13975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22498</v>
+        <v>22431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.790094614259032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5944172476970043</v>
+        <v>0.5717060395082182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9203914020660661</v>
+        <v>0.9176321154439233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3451,19 +3451,19 @@
         <v>24839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19226</v>
+        <v>18477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29821</v>
+        <v>29091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7312342398186384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5660140832855106</v>
+        <v>0.5439565748410711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8779151407921759</v>
+        <v>0.8564268138255188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -3472,19 +3472,19 @@
         <v>44152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36372</v>
+        <v>36853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49399</v>
+        <v>49707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7558659054908216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6226766774997339</v>
+        <v>0.6309105471666175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8456915930551117</v>
+        <v>0.8509624245059992</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>4782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9591</v>
+        <v>9738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.23731869457239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09180741110664577</v>
+        <v>0.09190857932137361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4759243771165477</v>
+        <v>0.4832049608386223</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3597,19 +3597,19 @@
         <v>7523</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3246</v>
+        <v>3182</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14006</v>
+        <v>13208</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2061777713580906</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0889631429504478</v>
+        <v>0.08720354773936825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3838390825527274</v>
+        <v>0.3619657224416701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3618,19 +3618,19 @@
         <v>12306</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6821</v>
+        <v>6780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19025</v>
+        <v>19206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2172569696334401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1204312711923067</v>
+        <v>0.1197065984816899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.335882383089222</v>
+        <v>0.3390809645078676</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>15370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10561</v>
+        <v>10414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18302</v>
+        <v>18300</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7626813054276099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5240756228834522</v>
+        <v>0.5167950391613778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9081925888933542</v>
+        <v>0.9080914206786264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3668,19 +3668,19 @@
         <v>28967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22484</v>
+        <v>23282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33244</v>
+        <v>33308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7938222286419094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6161609174472727</v>
+        <v>0.63803427755833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9110368570495523</v>
+        <v>0.9127964522606318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -3689,19 +3689,19 @@
         <v>44335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37616</v>
+        <v>37435</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49820</v>
+        <v>49861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7827430303665599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.664117616910778</v>
+        <v>0.6609190354921323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8795687288076933</v>
+        <v>0.88029340151831</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>7049</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3910</v>
+        <v>3750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11062</v>
+        <v>11032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5333967735761991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2958328420190594</v>
+        <v>0.2837357153029123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8370024872202276</v>
+        <v>0.8347361985435571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3814,19 +3814,19 @@
         <v>5843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2104</v>
+        <v>2065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10727</v>
+        <v>11000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2731592937865197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09835345305058665</v>
+        <v>0.09652999010786281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5014923576380783</v>
+        <v>0.5142602112667091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3835,19 +3835,19 @@
         <v>12892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7852</v>
+        <v>7468</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19194</v>
+        <v>19092</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3725444390038041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.226898014778594</v>
+        <v>0.2157984364652491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5546299268315857</v>
+        <v>0.5516933318705227</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>6167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2154</v>
+        <v>2184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9306</v>
+        <v>9466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.466603226423801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1629975127797725</v>
+        <v>0.1652638014564428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7041671579809407</v>
+        <v>0.7162642846970878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -3885,19 +3885,19 @@
         <v>15547</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10663</v>
+        <v>10390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19286</v>
+        <v>19325</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7268407062134803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4985076423619214</v>
+        <v>0.4857397887332903</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9016465469494134</v>
+        <v>0.9034700098921372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -3906,19 +3906,19 @@
         <v>21714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15412</v>
+        <v>15514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26754</v>
+        <v>27138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6274555609961959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4453700731684142</v>
+        <v>0.4483066681294769</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7731019852214059</v>
+        <v>0.7842015635347506</v>
       </c>
     </row>
     <row r="18">
@@ -4010,19 +4010,19 @@
         <v>5165</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2070</v>
+        <v>1141</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9999</v>
+        <v>9944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3357099380503052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.134526986432984</v>
+        <v>0.07414252116325447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6499090731522522</v>
+        <v>0.6463604167563407</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4031,19 +4031,19 @@
         <v>4153</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1019</v>
+        <v>1058</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8532</v>
+        <v>9161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1552005286144918</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03810102982619955</v>
+        <v>0.03955011649158421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3188764629519004</v>
+        <v>0.3424080385893807</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4052,19 +4052,19 @@
         <v>9317</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5098</v>
+        <v>4318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17598</v>
+        <v>16231</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2211020728812588</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1209704122918335</v>
+        <v>0.1024616630288683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4176096445264833</v>
+        <v>0.3851667452478909</v>
       </c>
     </row>
     <row r="20">
@@ -4081,19 +4081,19 @@
         <v>10220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5386</v>
+        <v>5441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13315</v>
+        <v>14244</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6642900619496949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3500909268477478</v>
+        <v>0.3536395832436594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.865473013567016</v>
+        <v>0.9258574788367455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -4102,19 +4102,19 @@
         <v>22603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18224</v>
+        <v>17595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25737</v>
+        <v>25698</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8447994713855081</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6811235370480997</v>
+        <v>0.657591961410619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9618989701738004</v>
+        <v>0.9604498835084158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -4123,19 +4123,19 @@
         <v>32824</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24543</v>
+        <v>25910</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37043</v>
+        <v>37823</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7788979271187412</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5823903554735146</v>
+        <v>0.6148332547521091</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8790295877081663</v>
+        <v>0.8975383369711317</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>9533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4410</v>
+        <v>4427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15857</v>
+        <v>16124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.310016680822186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1434104434947786</v>
+        <v>0.143972861392487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.515699495788124</v>
+        <v>0.5243646695648602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4248,19 +4248,19 @@
         <v>15063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8553</v>
+        <v>9523</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22053</v>
+        <v>23240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2567313522444098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1457742557396221</v>
+        <v>0.1623019298729499</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.375869649304618</v>
+        <v>0.3960966415094374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -4269,19 +4269,19 @@
         <v>24596</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15926</v>
+        <v>15794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33770</v>
+        <v>33887</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2750545065013015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.178096417424451</v>
+        <v>0.1766257894971737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3776565581501312</v>
+        <v>0.378961309304832</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>21216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14892</v>
+        <v>14625</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26339</v>
+        <v>26322</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6899833191778141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4843005042118748</v>
+        <v>0.4756353304351397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8565895565052213</v>
+        <v>0.8560271386075133</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -4319,19 +4319,19 @@
         <v>43609</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36619</v>
+        <v>35432</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50119</v>
+        <v>49149</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7432686477555902</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6241303506953815</v>
+        <v>0.6039033584905626</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8542257442603771</v>
+        <v>0.8376980701270501</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -4340,19 +4340,19 @@
         <v>64825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>55651</v>
+        <v>55534</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73495</v>
+        <v>73627</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7249454934986985</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6223434418498687</v>
+        <v>0.6210386906951681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8219035825755491</v>
+        <v>0.8233742105028263</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>6364</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11876</v>
+        <v>12320</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.171530715304422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06081413558766949</v>
+        <v>0.06088328036652219</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3201220032316759</v>
+        <v>0.3320859767397963</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4465,19 +4465,19 @@
         <v>15287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9559</v>
+        <v>9061</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23624</v>
+        <v>23081</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.251555423991453</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1572988333984845</v>
+        <v>0.1491106716405523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3887477064806383</v>
+        <v>0.3798164770204204</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -4486,19 +4486,19 @@
         <v>21650</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13327</v>
+        <v>14532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30684</v>
+        <v>32137</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2212204119305708</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1361733199000525</v>
+        <v>0.1484866414891637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3135242450852686</v>
+        <v>0.3283761931829888</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>30735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25223</v>
+        <v>24779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34843</v>
+        <v>34840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.828469284695578</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6798779967683242</v>
+        <v>0.6679140232602035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9391858644123305</v>
+        <v>0.9391167196334778</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -4536,19 +4536,19 @@
         <v>45482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37145</v>
+        <v>37688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51210</v>
+        <v>51708</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.748444576008547</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6112522935193617</v>
+        <v>0.6201835229795796</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8427011666015155</v>
+        <v>0.8508893283594474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -4557,19 +4557,19 @@
         <v>76217</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>67183</v>
+        <v>65730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84540</v>
+        <v>83335</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7787795880694292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6864757549147317</v>
+        <v>0.6716238068170112</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8638266800999477</v>
+        <v>0.8515133585108363</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>61754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2972298742433067</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -4682,19 +4682,19 @@
         <v>82264</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2459032968918332</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>132</v>
@@ -4703,19 +4703,19 @@
         <v>144017</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2655673836358959</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>146011</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>131511</v>
+        <v>132116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>158291</v>
+        <v>159313</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7027701257566933</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6329815838853863</v>
+        <v>0.6358933734609205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7618774304911515</v>
+        <v>0.7667926355783864</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>236</v>
@@ -4753,19 +4753,19 @@
         <v>252272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>236504</v>
+        <v>235899</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>267684</v>
+        <v>269384</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7540967031081668</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.706961216849612</v>
+        <v>0.7051515641131941</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8001645266210058</v>
+        <v>0.8052458382930046</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>371</v>
@@ -4774,19 +4774,19 @@
         <v>398284</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>377261</v>
+        <v>375920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>418316</v>
+        <v>418203</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7344326163641042</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6956680050474281</v>
+        <v>0.6931946094065858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7713717228723851</v>
+        <v>0.771163292771186</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>5527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2025</v>
+        <v>2175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9892</v>
+        <v>9596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3533897647176554</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1294392517610725</v>
+        <v>0.1390685579765214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6324693008837736</v>
+        <v>0.6135129985558124</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5143,19 +5143,19 @@
         <v>5624</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2645</v>
+        <v>2551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11530</v>
+        <v>11073</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1673037350831866</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07869331123041377</v>
+        <v>0.07588128917023118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.343009364778233</v>
+        <v>0.3294299930298766</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5164,19 +5164,19 @@
         <v>11151</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6079</v>
+        <v>5809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17710</v>
+        <v>17412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2263982989262976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1234167761961725</v>
+        <v>0.1179351573645139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3595683712398033</v>
+        <v>0.3535119310216923</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>10114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5749</v>
+        <v>6045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13616</v>
+        <v>13466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6466102352823446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3675306991162253</v>
+        <v>0.3864870014441877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8705607482389274</v>
+        <v>0.8609314420234786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -5214,19 +5214,19 @@
         <v>27989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22083</v>
+        <v>22540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30968</v>
+        <v>31062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8326962649168134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6569906352217666</v>
+        <v>0.6705700069701231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9213066887695862</v>
+        <v>0.9241187108297688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -5235,19 +5235,19 @@
         <v>38103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31544</v>
+        <v>31842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43175</v>
+        <v>43445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7736017010737024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6404316287601967</v>
+        <v>0.6464880689783078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.876583223803827</v>
+        <v>0.8820648426354867</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>6645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2285</v>
+        <v>2347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11159</v>
+        <v>11177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3165809556738913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1088674603182549</v>
+        <v>0.1118190394044155</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5316290098607563</v>
+        <v>0.5324868757443706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -5360,19 +5360,19 @@
         <v>8814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4171</v>
+        <v>3971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14929</v>
+        <v>15389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2443833695553565</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1156421866569444</v>
+        <v>0.1101126727157457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4139203916344974</v>
+        <v>0.4266743257486522</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -5381,19 +5381,19 @@
         <v>15460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8663</v>
+        <v>9094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24077</v>
+        <v>24111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2709441111887395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1518200998407917</v>
+        <v>0.1593719926731539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4219609198816096</v>
+        <v>0.4225664703237358</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>14346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9832</v>
+        <v>9814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18706</v>
+        <v>18644</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6834190443261087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4683709901392436</v>
+        <v>0.4675131242556294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8911325396817451</v>
+        <v>0.8881809605955844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -5431,19 +5431,19 @@
         <v>27253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21138</v>
+        <v>20678</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31896</v>
+        <v>32096</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7556166304446434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5860796083655027</v>
+        <v>0.5733256742513478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8843578133430556</v>
+        <v>0.8898873272842542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -5452,19 +5452,19 @@
         <v>41599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32982</v>
+        <v>32948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48396</v>
+        <v>47965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7290558888112605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5780390801183889</v>
+        <v>0.5774335296762643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8481799001592075</v>
+        <v>0.8406280073268462</v>
       </c>
     </row>
     <row r="9">
@@ -5556,19 +5556,19 @@
         <v>2611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6175</v>
+        <v>5427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.287979442332186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08627496827267586</v>
+        <v>0.08598011756931168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6810962647665437</v>
+        <v>0.5985440558994735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5577,19 +5577,19 @@
         <v>7050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3101</v>
+        <v>3071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13054</v>
+        <v>13591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.217075070474127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09548330156791104</v>
+        <v>0.09455623676202446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4019801810261706</v>
+        <v>0.4185013114091632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5598,19 +5598,19 @@
         <v>9661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4799</v>
+        <v>4997</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14997</v>
+        <v>15768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2325510852702614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1155300959950233</v>
+        <v>0.120294275450223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3610068631210994</v>
+        <v>0.3795613556219826</v>
       </c>
     </row>
     <row r="11">
@@ -5627,19 +5627,19 @@
         <v>6456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2892</v>
+        <v>3640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8285</v>
+        <v>8287</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.712020557667814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3189037352334567</v>
+        <v>0.4014559441005266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9137250317273241</v>
+        <v>0.9140198824306883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -5648,19 +5648,19 @@
         <v>25425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19421</v>
+        <v>18884</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29374</v>
+        <v>29404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.782924929525873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5980198189738289</v>
+        <v>0.581498688590837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9045166984320889</v>
+        <v>0.9054437632379756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -5669,19 +5669,19 @@
         <v>31882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26546</v>
+        <v>25775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36744</v>
+        <v>36546</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7674489147297386</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6389931368789006</v>
+        <v>0.6204386443780172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8844699040049767</v>
+        <v>0.879705724549777</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>8347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3900</v>
+        <v>4256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13730</v>
+        <v>13688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2975059554879235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1390130048157945</v>
+        <v>0.1516872424148341</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4893431725826531</v>
+        <v>0.4878616513609837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5794,19 +5794,19 @@
         <v>11116</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5734</v>
+        <v>5492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17086</v>
+        <v>17022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3485722010977175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1797987654537439</v>
+        <v>0.1722235713502349</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5357668345995235</v>
+        <v>0.5337597028027137</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -5815,19 +5815,19 @@
         <v>19463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12363</v>
+        <v>12558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28033</v>
+        <v>27895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.324671711527678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2062346077331674</v>
+        <v>0.2094783807123906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4676266519222033</v>
+        <v>0.4653333876004282</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>19710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14327</v>
+        <v>14369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24157</v>
+        <v>23801</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7024940445120765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5106568274173469</v>
+        <v>0.5121383486390165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8609869951842054</v>
+        <v>0.8483127575851659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -5865,19 +5865,19 @@
         <v>20774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14804</v>
+        <v>14868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26156</v>
+        <v>26398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6514277989022825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4642331654004767</v>
+        <v>0.466240297197286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8202012345462563</v>
+        <v>0.8277764286497651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -5886,19 +5886,19 @@
         <v>40484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31914</v>
+        <v>32052</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47584</v>
+        <v>47389</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.675328288472322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.532373348077797</v>
+        <v>0.5346666123995719</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7937653922668327</v>
+        <v>0.7905216192876094</v>
       </c>
     </row>
     <row r="15">
@@ -5990,19 +5990,19 @@
         <v>4774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1929</v>
+        <v>1879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7686</v>
+        <v>7673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5508441038355989</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2226208188657691</v>
+        <v>0.2167861892353303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8868525749905611</v>
+        <v>0.8852739080313938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6011,19 +6011,19 @@
         <v>3830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>937</v>
+        <v>891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7554</v>
+        <v>7322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3406783104976519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08331203298499001</v>
+        <v>0.07926275164159456</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6720350802494328</v>
+        <v>0.6513437677287077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6032,19 +6032,19 @@
         <v>8604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4629</v>
+        <v>4533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13372</v>
+        <v>13312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4321707188151862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2324947266856389</v>
+        <v>0.2276934693228718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6716998110818291</v>
+        <v>0.6686641623077384</v>
       </c>
     </row>
     <row r="17">
@@ -6061,19 +6061,19 @@
         <v>3893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6738</v>
+        <v>6788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.449155896164401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1131474250094389</v>
+        <v>0.1147260919686061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7773791811342309</v>
+        <v>0.7832138107646698</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6082,19 +6082,19 @@
         <v>7411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3687</v>
+        <v>3919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10304</v>
+        <v>10350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.659321689502348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3279649197505665</v>
+        <v>0.3486562322712924</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.91668796701501</v>
+        <v>0.9207372483584054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -6103,19 +6103,19 @@
         <v>11304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6536</v>
+        <v>6596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15279</v>
+        <v>15375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5678292811848139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3283001889181712</v>
+        <v>0.3313358376922619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7675052733143611</v>
+        <v>0.7723065306771282</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>6367</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2895</v>
+        <v>2839</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11003</v>
+        <v>10911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3502040072966382</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1592233034034629</v>
+        <v>0.1561703120575258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6051548320719691</v>
+        <v>0.6000771612070901</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -6228,19 +6228,19 @@
         <v>7998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3289</v>
+        <v>3570</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13136</v>
+        <v>13743</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3015963649074858</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1240027809942495</v>
+        <v>0.1345977139642158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4953262504726476</v>
+        <v>0.5182198332729484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -6249,19 +6249,19 @@
         <v>14366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8155</v>
+        <v>8050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21611</v>
+        <v>21589</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.321366873825548</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1824328483707322</v>
+        <v>0.1800876624453751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4834314849556664</v>
+        <v>0.4829436754720877</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>11815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7179</v>
+        <v>7271</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15287</v>
+        <v>15343</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6497959927033619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3948451679280309</v>
+        <v>0.3999228387929094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8407766965965371</v>
+        <v>0.8438296879424744</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -6299,19 +6299,19 @@
         <v>18522</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13384</v>
+        <v>12777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23231</v>
+        <v>22950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6984036350925142</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5046737495273527</v>
+        <v>0.4817801667270517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8759972190057504</v>
+        <v>0.8654022860357843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -6320,19 +6320,19 @@
         <v>30337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23092</v>
+        <v>23114</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36548</v>
+        <v>36653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.678633126174452</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5165685150443335</v>
+        <v>0.5170563245279124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8175671516292677</v>
+        <v>0.8199123375546248</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>8875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4372</v>
+        <v>4125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15609</v>
+        <v>15290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3392571283455302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1671253820896407</v>
+        <v>0.1576821423779793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5966688258403594</v>
+        <v>0.5844919013402503</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6445,19 +6445,19 @@
         <v>12000</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6329</v>
+        <v>6475</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18782</v>
+        <v>19401</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2490150110835211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1313419815123405</v>
+        <v>0.1343693900446853</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3897417822115855</v>
+        <v>0.4025927376545098</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6466,19 +6466,19 @@
         <v>20875</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13408</v>
+        <v>13552</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30205</v>
+        <v>30014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2807668895680576</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1803338874235178</v>
+        <v>0.1822764049265577</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4062567496524298</v>
+        <v>0.4036816053646275</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>17285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10551</v>
+        <v>10870</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21788</v>
+        <v>22035</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6607428716544699</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4033311741596404</v>
+        <v>0.4155080986597495</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8328746179103583</v>
+        <v>0.8423178576220207</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -6516,19 +6516,19 @@
         <v>36190</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29408</v>
+        <v>28789</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41861</v>
+        <v>41715</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7509849889164789</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6102582177884143</v>
+        <v>0.5974072623454902</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8686580184876593</v>
+        <v>0.8656306099553145</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -6537,19 +6537,19 @@
         <v>53475</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>44145</v>
+        <v>44336</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>60942</v>
+        <v>60798</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7192331104319424</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5937432503475701</v>
+        <v>0.5963183946353726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8196661125764823</v>
+        <v>0.8177235950734423</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>11603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6884</v>
+        <v>6829</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19012</v>
+        <v>17546</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3249265171673699</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.19276360020814</v>
+        <v>0.1912238461222409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5323737331063838</v>
+        <v>0.4913310593027559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -6662,19 +6662,19 @@
         <v>9215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4441</v>
+        <v>4557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16266</v>
+        <v>16240</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1860382640995799</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08965278834196559</v>
+        <v>0.09200534387094932</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3283879910348281</v>
+        <v>0.3278717169938467</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -6683,19 +6683,19 @@
         <v>20818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13627</v>
+        <v>13239</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29206</v>
+        <v>29853</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2442220053167708</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1598618226683344</v>
+        <v>0.1553061473002248</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3426117508898392</v>
+        <v>0.3502077328249176</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>24108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16699</v>
+        <v>18165</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28827</v>
+        <v>28882</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.67507348283263</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4676262668936163</v>
+        <v>0.5086689406972444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.80723639979186</v>
+        <v>0.8087761538777601</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -6733,19 +6733,19 @@
         <v>40318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33267</v>
+        <v>33293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45092</v>
+        <v>44976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8139617359004201</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6716120089651718</v>
+        <v>0.6721282830061528</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.910347211658034</v>
+        <v>0.9079946561290506</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>60</v>
@@ -6754,19 +6754,19 @@
         <v>64426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56038</v>
+        <v>55391</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71617</v>
+        <v>72005</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7557779946832293</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6573882491101607</v>
+        <v>0.649792267175082</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8401381773316655</v>
+        <v>0.8446938526997749</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>54751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3369781723023659</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -6879,19 +6879,19 @@
         <v>65647</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2435591731291409</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>110</v>
@@ -6900,19 +6900,19 @@
         <v>120398</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2786938489210258</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>107726</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>96170</v>
+        <v>94500</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119828</v>
+        <v>119436</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6630218276976342</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5918993369241378</v>
+        <v>0.5816220041304593</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7375059516421061</v>
+        <v>0.735097520450013</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -6950,19 +6950,19 @@
         <v>203884</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>187636</v>
+        <v>188222</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>217746</v>
+        <v>217436</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7564408268708591</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6961592118400635</v>
+        <v>0.6983330087972852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8078696519835695</v>
+        <v>0.8067190947081676</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>291</v>
@@ -6971,19 +6971,19 @@
         <v>311610</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>292353</v>
+        <v>290972</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>330479</v>
+        <v>330310</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7213061510789742</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6767314335712474</v>
+        <v>0.6735339382422929</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7649827780493899</v>
+        <v>0.7645916246349697</v>
       </c>
     </row>
     <row r="30">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6026</v>
+        <v>5568</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1834524039333811</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5162370209020266</v>
+        <v>0.4769864710405117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -7340,19 +7340,19 @@
         <v>2992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1363</v>
+        <v>1045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5813</v>
+        <v>6189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1347353857025362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0613862107535434</v>
+        <v>0.04705011602134401</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2617444915647552</v>
+        <v>0.2786912292871094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -7361,19 +7361,19 @@
         <v>5134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2361</v>
+        <v>2392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9444</v>
+        <v>9759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1515193362321815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06968636510855669</v>
+        <v>0.07059432598671123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2787381190344901</v>
+        <v>0.2880145032477919</v>
       </c>
     </row>
     <row r="5">
@@ -7390,7 +7390,7 @@
         <v>9532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5647</v>
+        <v>6105</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>11673</v>
@@ -7399,7 +7399,7 @@
         <v>0.8165475960666189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4837629790979731</v>
+        <v>0.523013528959488</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7411,19 +7411,19 @@
         <v>19217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16396</v>
+        <v>16020</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20846</v>
+        <v>21164</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8652646142974639</v>
+        <v>0.8652646142974638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7382555084352448</v>
+        <v>0.7213087707128905</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9386137892464564</v>
+        <v>0.9529498839786559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -7432,19 +7432,19 @@
         <v>28748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24438</v>
+        <v>24123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31521</v>
+        <v>31490</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8484806637678183</v>
+        <v>0.8484806637678184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7212618809655098</v>
+        <v>0.7119854967522079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9303136348914431</v>
+        <v>0.9294056740132892</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>16718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10137</v>
+        <v>10011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24003</v>
+        <v>23982</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4083442541169293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2476027954650788</v>
+        <v>0.2445181334475411</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5862914441541268</v>
+        <v>0.5857921433306218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -7557,19 +7557,19 @@
         <v>6554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3467</v>
+        <v>3253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10985</v>
+        <v>11210</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2686671065346961</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.142106433434932</v>
+        <v>0.1333268374469411</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4502893386877907</v>
+        <v>0.4595116410824455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -7578,19 +7578,19 @@
         <v>23272</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15445</v>
+        <v>16169</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32211</v>
+        <v>31779</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3561899774346423</v>
+        <v>0.3561899774346424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2363933329241303</v>
+        <v>0.2474812624638276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4930197352232767</v>
+        <v>0.4864010607591365</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>24222</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16937</v>
+        <v>16958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30803</v>
+        <v>30929</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5916557458830707</v>
+        <v>0.5916557458830706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4137085558458732</v>
+        <v>0.4142078566693778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7523972045349212</v>
+        <v>0.7554818665524586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -7628,19 +7628,19 @@
         <v>17842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13411</v>
+        <v>13186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20929</v>
+        <v>21143</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7313328934653038</v>
+        <v>0.7313328934653039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5497106613122097</v>
+        <v>0.5404883589175544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8578935665650687</v>
+        <v>0.8666731625530589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -7649,19 +7649,19 @@
         <v>42063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33124</v>
+        <v>33556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49890</v>
+        <v>49166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6438100225653578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5069802647767235</v>
+        <v>0.5135989392408634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7636066670758697</v>
+        <v>0.7525187375361724</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>10706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6520</v>
+        <v>6456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15237</v>
+        <v>15501</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4025681804670992</v>
+        <v>0.4025681804670993</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.245161085047275</v>
+        <v>0.242764093962469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5729624834558594</v>
+        <v>0.582870795006359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -7774,19 +7774,19 @@
         <v>6957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3785</v>
+        <v>3891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11394</v>
+        <v>11351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2091518524138885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1137778359677403</v>
+        <v>0.1169663316616944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3425451439585832</v>
+        <v>0.3412430732338064</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -7795,19 +7795,19 @@
         <v>17663</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12270</v>
+        <v>12284</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24046</v>
+        <v>24047</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2950855804078799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2049915577786177</v>
+        <v>0.205226005283782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.401731580828212</v>
+        <v>0.4017445371221147</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>15888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11357</v>
+        <v>11093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20074</v>
+        <v>20138</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5974318195329007</v>
+        <v>0.5974318195329008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4270375165441404</v>
+        <v>0.417129204993641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7548389149527247</v>
+        <v>0.7572359060375311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -7845,19 +7845,19 @@
         <v>26306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21869</v>
+        <v>21912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29478</v>
+        <v>29372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7908481475861115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.657454856041417</v>
+        <v>0.6587569267661934</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8862221640322595</v>
+        <v>0.8830336683383057</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -7866,19 +7866,19 @@
         <v>42194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35811</v>
+        <v>35810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47587</v>
+        <v>47573</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7049144195921202</v>
+        <v>0.7049144195921203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5982684191717881</v>
+        <v>0.5982554628778853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7950084422213823</v>
+        <v>0.7947739947162182</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>10754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4656</v>
+        <v>5608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16835</v>
+        <v>17264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3888795004769802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1683636842482275</v>
+        <v>0.2028050592273857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6087855561605806</v>
+        <v>0.6243031820632271</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -7991,19 +7991,19 @@
         <v>11463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5807</v>
+        <v>5991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19925</v>
+        <v>19546</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2999816076274224</v>
+        <v>0.2999816076274225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1519744764941642</v>
+        <v>0.1567834578446518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5214431226943369</v>
+        <v>0.5115245821527274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -8012,19 +8012,19 @@
         <v>22217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13700</v>
+        <v>13823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31549</v>
+        <v>32584</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3373060764647128</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2079980712100095</v>
+        <v>0.2098738501165521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4789993697336992</v>
+        <v>0.4947045226970491</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>16900</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10819</v>
+        <v>10390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22998</v>
+        <v>22046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6111204995230198</v>
+        <v>0.6111204995230197</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3912144438394195</v>
+        <v>0.3756968179367729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8316363157517724</v>
+        <v>0.7971949407726143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -8062,19 +8062,19 @@
         <v>26748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18286</v>
+        <v>18665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32404</v>
+        <v>32220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7000183923725776</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4785568773056635</v>
+        <v>0.4884754178472726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.848025523505836</v>
+        <v>0.843216542155348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -8083,19 +8083,19 @@
         <v>43648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34316</v>
+        <v>33281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52165</v>
+        <v>52042</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.662693923535287</v>
+        <v>0.6626939235352871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5210006302663013</v>
+        <v>0.5052954773029509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7920019287899905</v>
+        <v>0.7901261498834478</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>2448</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4027</v>
+        <v>3612</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5399376270742231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1511704055806217</v>
+        <v>0.1592035753787729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8883286569447094</v>
+        <v>0.7968554357415544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8208,19 +8208,19 @@
         <v>1195</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3456</v>
+        <v>3011</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1331265160670604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04157196377408397</v>
+        <v>0.03955621251010856</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3848492978533645</v>
+        <v>0.3352655906990732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -8229,19 +8229,19 @@
         <v>3643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1657</v>
+        <v>1756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6560</v>
+        <v>6114</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2696008504137269</v>
+        <v>0.2696008504137268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1226433170826968</v>
+        <v>0.1299554079647618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4854437357431951</v>
+        <v>0.4524376705666641</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>2085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506</v>
+        <v>921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3847</v>
+        <v>3811</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4600623729257769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.111650087530512</v>
+        <v>0.2031445642584455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8487391284466812</v>
+        <v>0.8407964246212271</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -8279,19 +8279,19 @@
         <v>7785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5524</v>
+        <v>5969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8607</v>
+        <v>8625</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8668734839329394</v>
+        <v>0.8668734839329395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6151507021466354</v>
+        <v>0.6647344093009271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.958428036225916</v>
+        <v>0.9604437874898916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -8300,19 +8300,19 @@
         <v>9870</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6953</v>
+        <v>7399</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11856</v>
+        <v>11757</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7303991495862732</v>
+        <v>0.7303991495862733</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5145562642568049</v>
+        <v>0.5475623294333348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8773566829173032</v>
+        <v>0.8700445920352383</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>6103</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3227</v>
+        <v>3379</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9802</v>
+        <v>9948</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2515528447567779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1330117553283569</v>
+        <v>0.1392887790423058</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4040031511634033</v>
+        <v>0.4100276295311309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8425,19 +8425,19 @@
         <v>3313</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1328</v>
+        <v>1234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6782</v>
+        <v>6330</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1485625599791873</v>
+        <v>0.1485625599791874</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05953893870074885</v>
+        <v>0.05534757847038525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3040820085001101</v>
+        <v>0.2838278456452775</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -8446,19 +8446,19 @@
         <v>9416</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6032</v>
+        <v>6050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13891</v>
+        <v>14404</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2022242517633839</v>
+        <v>0.202224251763384</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1295495237521112</v>
+        <v>0.1299387671865122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2983344091014111</v>
+        <v>0.309345495127722</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>18158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14459</v>
+        <v>14313</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21034</v>
+        <v>20882</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7484471552432221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5959968488365968</v>
+        <v>0.589972370468868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8669882446716429</v>
+        <v>0.860711220957694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -8496,19 +8496,19 @@
         <v>18989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15520</v>
+        <v>15972</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20974</v>
+        <v>21068</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8514374400208127</v>
+        <v>0.8514374400208128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6959179914998899</v>
+        <v>0.7161721543547225</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9404610612992509</v>
+        <v>0.944652421529615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>64</v>
@@ -8517,19 +8517,19 @@
         <v>37147</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32672</v>
+        <v>32159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40531</v>
+        <v>40513</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7977757482366161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.701665590898589</v>
+        <v>0.6906545048722779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8704504762478888</v>
+        <v>0.8700612328134878</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>10690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5325</v>
+        <v>5417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16657</v>
+        <v>17470</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2461808090090558</v>
+        <v>0.2461808090090557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.122633861912732</v>
+        <v>0.1247545220659859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3835962315708376</v>
+        <v>0.4023242864518969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -8642,19 +8642,19 @@
         <v>19976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14172</v>
+        <v>14122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26204</v>
+        <v>26569</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3130376286832852</v>
+        <v>0.3130376286832853</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2220933125347246</v>
+        <v>0.2213044652213325</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4106314518278243</v>
+        <v>0.4163589518294396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -8663,19 +8663,19 @@
         <v>30666</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22596</v>
+        <v>22546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39489</v>
+        <v>41375</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2859657322905967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2107140188267014</v>
+        <v>0.2102449847366615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3682448725478105</v>
+        <v>0.3858383907531923</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>32732</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26765</v>
+        <v>25952</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38097</v>
+        <v>38005</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7538191909909443</v>
+        <v>0.7538191909909442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6164037684291623</v>
+        <v>0.597675713548103</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.877366138087268</v>
+        <v>0.8752454779340142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -8713,19 +8713,19 @@
         <v>43837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>37609</v>
+        <v>37244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49641</v>
+        <v>49691</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6869623713167147</v>
+        <v>0.6869623713167149</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5893685481721757</v>
+        <v>0.5836410481705602</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7779066874652754</v>
+        <v>0.7786955347786675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>88</v>
@@ -8734,19 +8734,19 @@
         <v>76569</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>67746</v>
+        <v>65860</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>84639</v>
+        <v>84689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7140342677094033</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.631755127452189</v>
+        <v>0.6141616092468078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7892859811732984</v>
+        <v>0.7897550152633385</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>8643</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4890</v>
+        <v>4905</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13480</v>
+        <v>13456</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3311290698682488</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1873367691173253</v>
+        <v>0.187932557623098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5164690810336228</v>
+        <v>0.5155397869944859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -8859,19 +8859,19 @@
         <v>4834</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2481</v>
+        <v>2144</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9681</v>
+        <v>9241</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1496858546687894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07682653281000643</v>
+        <v>0.06638471243393491</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2997767844323475</v>
+        <v>0.2861483086207294</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -8880,19 +8880,19 @@
         <v>13477</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8438</v>
+        <v>8435</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19810</v>
+        <v>19432</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2307870219746307</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1444993423993464</v>
+        <v>0.1444458995236345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3392409476259787</v>
+        <v>0.3327670133974307</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>17458</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12621</v>
+        <v>12645</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21211</v>
+        <v>21196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6688709301317511</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.483530918966377</v>
+        <v>0.484460213005514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8126632308826748</v>
+        <v>0.8120674423769015</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -8930,19 +8930,19 @@
         <v>27460</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22613</v>
+        <v>23053</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29813</v>
+        <v>30150</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8503141453312106</v>
+        <v>0.8503141453312104</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7002232155676527</v>
+        <v>0.713851691379271</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9231734671899934</v>
+        <v>0.9336152875660654</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -8951,19 +8951,19 @@
         <v>44918</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38585</v>
+        <v>38963</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49957</v>
+        <v>49960</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7692129780253694</v>
+        <v>0.7692129780253693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6607590523740215</v>
+        <v>0.6672329866025694</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8555006576006541</v>
+        <v>0.8555541004763655</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>68202</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3324037477316307</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -9076,19 +9076,19 @@
         <v>57285</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2333703856574512</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>162</v>
@@ -9097,19 +9097,19 @@
         <v>125487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2784601466698143</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>136976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>122141</v>
+        <v>122915</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>149886</v>
+        <v>150981</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6675962522683692</v>
+        <v>0.6675962522683695</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5952920129037397</v>
+        <v>0.5990673065573344</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7305146953317995</v>
+        <v>0.7358546816128879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>259</v>
@@ -9147,19 +9147,19 @@
         <v>188182</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>174403</v>
+        <v>174192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>198903</v>
+        <v>199023</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7666296143425489</v>
+        <v>0.7666296143425487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7104965916533682</v>
+        <v>0.7096361386225973</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8103044826521524</v>
+        <v>0.8107947361132649</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>410</v>
@@ -9168,19 +9168,19 @@
         <v>325158</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>307696</v>
+        <v>304053</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>345230</v>
+        <v>340878</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7215398533301856</v>
+        <v>0.7215398533301854</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6827897024864386</v>
+        <v>0.6747061817311881</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7660804308755171</v>
+        <v>0.7564225187734301</v>
       </c>
     </row>
     <row r="30">
